--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Serpinc1-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.717547</v>
+        <v>7.101114</v>
       </c>
       <c r="H2">
-        <v>17.152641</v>
+        <v>21.303342</v>
       </c>
       <c r="I2">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="J2">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N2">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P2">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q2">
-        <v>38.563346988441</v>
+        <v>44.778531312444</v>
       </c>
       <c r="R2">
-        <v>347.070122895969</v>
+        <v>403.006781811996</v>
       </c>
       <c r="S2">
-        <v>0.003670920845496171</v>
+        <v>0.00536154675995566</v>
       </c>
       <c r="T2">
-        <v>0.003670920845496172</v>
+        <v>0.005361546759955659</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.717547</v>
+        <v>7.101114</v>
       </c>
       <c r="H3">
-        <v>17.152641</v>
+        <v>21.303342</v>
       </c>
       <c r="I3">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="J3">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>547.595047</v>
       </c>
       <c r="O3">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P3">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q3">
-        <v>1043.633472729903</v>
+        <v>1296.178284860786</v>
       </c>
       <c r="R3">
-        <v>9392.701254569127</v>
+        <v>11665.60456374707</v>
       </c>
       <c r="S3">
-        <v>0.09934552286786974</v>
+        <v>0.1551975975949205</v>
       </c>
       <c r="T3">
-        <v>0.09934552286786977</v>
+        <v>0.1551975975949205</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.717547</v>
+        <v>7.101114</v>
       </c>
       <c r="H4">
-        <v>17.152641</v>
+        <v>21.303342</v>
       </c>
       <c r="I4">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="J4">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N4">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P4">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q4">
-        <v>1424.429146947807</v>
+        <v>904.656309881802</v>
       </c>
       <c r="R4">
-        <v>12819.86232253026</v>
+        <v>8141.906788936219</v>
       </c>
       <c r="S4">
-        <v>0.1355942120384511</v>
+        <v>0.1083188073605331</v>
       </c>
       <c r="T4">
-        <v>0.1355942120384511</v>
+        <v>0.1083188073605331</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>5.717547</v>
+        <v>7.101114</v>
       </c>
       <c r="H5">
-        <v>17.152641</v>
+        <v>21.303342</v>
       </c>
       <c r="I5">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="J5">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N5">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P5">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q5">
-        <v>99.83089396407601</v>
+        <v>137.932047804152</v>
       </c>
       <c r="R5">
-        <v>898.478045676684</v>
+        <v>1241.388430237368</v>
       </c>
       <c r="S5">
-        <v>0.009503099141967394</v>
+        <v>0.01651526082528938</v>
       </c>
       <c r="T5">
-        <v>0.009503099141967395</v>
+        <v>0.01651526082528938</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>5.717547</v>
+        <v>7.101114</v>
       </c>
       <c r="H6">
-        <v>17.152641</v>
+        <v>21.303342</v>
       </c>
       <c r="I6">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="J6">
-        <v>0.3498537173739997</v>
+        <v>0.3953504211250435</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N6">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P6">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q6">
-        <v>1068.787271871891</v>
+        <v>918.3398985526601</v>
       </c>
       <c r="R6">
-        <v>9619.085446847019</v>
+        <v>8265.059086973941</v>
       </c>
       <c r="S6">
-        <v>0.1017399624802152</v>
+        <v>0.1099572085843449</v>
       </c>
       <c r="T6">
-        <v>0.1017399624802152</v>
+        <v>0.1099572085843449</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>9.780127</v>
       </c>
       <c r="I7">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="J7">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N7">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P7">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q7">
-        <v>21.98812597383811</v>
+        <v>20.55732490748067</v>
       </c>
       <c r="R7">
-        <v>197.893133764543</v>
+        <v>185.015924167326</v>
       </c>
       <c r="S7">
-        <v>0.002093092957282784</v>
+        <v>0.002461426391633992</v>
       </c>
       <c r="T7">
-        <v>0.002093092957282785</v>
+        <v>0.002461426391633992</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>9.780127</v>
       </c>
       <c r="I8">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="J8">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>547.595047</v>
       </c>
       <c r="O8">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P8">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q8">
         <v>595.0610115812188</v>
@@ -948,10 +948,10 @@
         <v>5355.54910423097</v>
       </c>
       <c r="S8">
-        <v>0.05664502804723601</v>
+        <v>0.07124948820580439</v>
       </c>
       <c r="T8">
-        <v>0.05664502804723603</v>
+        <v>0.07124948820580439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>9.780127</v>
       </c>
       <c r="I9">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="J9">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N9">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P9">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q9">
-        <v>812.1838473533734</v>
+        <v>415.3176342939703</v>
       </c>
       <c r="R9">
-        <v>7309.654626180361</v>
+        <v>3737.858708645733</v>
       </c>
       <c r="S9">
-        <v>0.07731337781750232</v>
+        <v>0.0497279578234508</v>
       </c>
       <c r="T9">
-        <v>0.07731337781750233</v>
+        <v>0.0497279578234508</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>9.780127</v>
       </c>
       <c r="I10">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="J10">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N10">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P10">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q10">
-        <v>56.92177790534978</v>
+        <v>63.32306662938978</v>
       </c>
       <c r="R10">
-        <v>512.2960011481481</v>
+        <v>569.907599664508</v>
       </c>
       <c r="S10">
-        <v>0.005418495991493797</v>
+        <v>0.007581972270334626</v>
       </c>
       <c r="T10">
-        <v>0.005418495991493797</v>
+        <v>0.007581972270334625</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>9.780127</v>
       </c>
       <c r="I11">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="J11">
-        <v>0.1994802892067655</v>
+        <v>0.1815009742652776</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N11">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P11">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q11">
-        <v>609.4032548626549</v>
+        <v>421.599617422099</v>
       </c>
       <c r="R11">
-        <v>5484.629293763894</v>
+        <v>3794.39655679889</v>
       </c>
       <c r="S11">
-        <v>0.05801029439325058</v>
+        <v>0.05048012957405385</v>
       </c>
       <c r="T11">
-        <v>0.05801029439325059</v>
+        <v>0.05048012957405384</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>2.093744666666667</v>
+        <v>3.142199666666667</v>
       </c>
       <c r="H12">
-        <v>6.281234</v>
+        <v>9.426599</v>
       </c>
       <c r="I12">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="J12">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N12">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P12">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q12">
-        <v>14.12175572598955</v>
+        <v>19.81422719925133</v>
       </c>
       <c r="R12">
-        <v>127.095801533906</v>
+        <v>178.328044793262</v>
       </c>
       <c r="S12">
-        <v>0.001344277701960841</v>
+        <v>0.002372451764885118</v>
       </c>
       <c r="T12">
-        <v>0.001344277701960841</v>
+        <v>0.002372451764885118</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>2.093744666666667</v>
+        <v>3.142199666666667</v>
       </c>
       <c r="H13">
-        <v>6.281234</v>
+        <v>9.426599</v>
       </c>
       <c r="I13">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="J13">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>547.595047</v>
       </c>
       <c r="O13">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P13">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q13">
-        <v>382.1747363831109</v>
+        <v>573.550991383906</v>
       </c>
       <c r="R13">
-        <v>3439.572627447998</v>
+        <v>5161.958922455153</v>
       </c>
       <c r="S13">
-        <v>0.03637996481040098</v>
+        <v>0.06867399107101037</v>
       </c>
       <c r="T13">
-        <v>0.03637996481040099</v>
+        <v>0.06867399107101035</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>2.093744666666667</v>
+        <v>3.142199666666667</v>
       </c>
       <c r="H14">
-        <v>6.281234</v>
+        <v>9.426599</v>
       </c>
       <c r="I14">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="J14">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N14">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P14">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q14">
-        <v>521.6207106765403</v>
+        <v>400.3049036191356</v>
       </c>
       <c r="R14">
-        <v>4694.586396088862</v>
+        <v>3602.744132572221</v>
       </c>
       <c r="S14">
-        <v>0.04965410136311536</v>
+        <v>0.04793041209900275</v>
       </c>
       <c r="T14">
-        <v>0.04965410136311538</v>
+        <v>0.04793041209900275</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>2.093744666666667</v>
+        <v>3.142199666666667</v>
       </c>
       <c r="H15">
-        <v>6.281234</v>
+        <v>9.426599</v>
       </c>
       <c r="I15">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="J15">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N15">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P15">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q15">
-        <v>36.55770591931289</v>
+        <v>61.03409051493288</v>
       </c>
       <c r="R15">
-        <v>329.0193532738161</v>
+        <v>549.306814634396</v>
       </c>
       <c r="S15">
-        <v>0.003479999927468687</v>
+        <v>0.007307902261551829</v>
       </c>
       <c r="T15">
-        <v>0.003479999927468688</v>
+        <v>0.007307902261551828</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>2.093744666666667</v>
+        <v>3.142199666666667</v>
       </c>
       <c r="H16">
-        <v>6.281234</v>
+        <v>9.426599</v>
       </c>
       <c r="I16">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="J16">
-        <v>0.1281151435861077</v>
+        <v>0.1749401518516162</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N16">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P16">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q16">
-        <v>391.3859650446229</v>
+        <v>406.3598082102145</v>
       </c>
       <c r="R16">
-        <v>3522.473685401606</v>
+        <v>3657.23827389193</v>
       </c>
       <c r="S16">
-        <v>0.03725679978316181</v>
+        <v>0.04865539465516617</v>
       </c>
       <c r="T16">
-        <v>0.03725679978316181</v>
+        <v>0.04865539465516616</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>2.640944</v>
+        <v>1.949111</v>
       </c>
       <c r="H17">
-        <v>7.922832</v>
+        <v>5.847333</v>
       </c>
       <c r="I17">
-        <v>0.1615979852507658</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="J17">
-        <v>0.1615979852507658</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N17">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P17">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q17">
-        <v>17.81247095109866</v>
+        <v>12.290793802906</v>
       </c>
       <c r="R17">
-        <v>160.312238559888</v>
+        <v>110.617144226154</v>
       </c>
       <c r="S17">
-        <v>0.001695604143068354</v>
+        <v>0.001471635262698773</v>
       </c>
       <c r="T17">
-        <v>0.001695604143068355</v>
+        <v>0.001471635262698773</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>2.640944</v>
+        <v>1.949111</v>
       </c>
       <c r="H18">
-        <v>7.922832</v>
+        <v>5.847333</v>
       </c>
       <c r="I18">
-        <v>0.1615979852507658</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="J18">
-        <v>0.1615979852507658</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>547.595047</v>
       </c>
       <c r="O18">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P18">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q18">
-        <v>482.0559512681227</v>
+        <v>355.7745098844057</v>
       </c>
       <c r="R18">
-        <v>4338.503561413104</v>
+        <v>3201.970588959651</v>
       </c>
       <c r="S18">
-        <v>0.04588785409980248</v>
+        <v>0.04259857603269475</v>
       </c>
       <c r="T18">
-        <v>0.0458878540998025</v>
+        <v>0.04259857603269474</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>2.640944</v>
+        <v>1.949111</v>
       </c>
       <c r="H19">
-        <v>7.922832</v>
+        <v>5.847333</v>
       </c>
       <c r="I19">
-        <v>0.1615979852507658</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="J19">
-        <v>0.1615979852507658</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N19">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P19">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q19">
-        <v>657.9460753111306</v>
+        <v>248.309710956623</v>
       </c>
       <c r="R19">
-        <v>5921.514677800175</v>
+        <v>2234.787398609607</v>
       </c>
       <c r="S19">
-        <v>0.0626311809448484</v>
+        <v>0.0297313039803749</v>
       </c>
       <c r="T19">
-        <v>0.06263118094484843</v>
+        <v>0.0297313039803749</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.640944</v>
+        <v>1.949111</v>
       </c>
       <c r="H20">
-        <v>7.922832</v>
+        <v>5.847333</v>
       </c>
       <c r="I20">
-        <v>0.1615979852507658</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="J20">
-        <v>0.1615979852507658</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N20">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P20">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q20">
-        <v>46.11204777661867</v>
+        <v>37.85953466281467</v>
       </c>
       <c r="R20">
-        <v>415.008429989568</v>
+        <v>340.735811965332</v>
       </c>
       <c r="S20">
-        <v>0.004389496520165717</v>
+        <v>0.004533102347383892</v>
       </c>
       <c r="T20">
-        <v>0.004389496520165718</v>
+        <v>0.004533102347383891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.640944</v>
+        <v>1.949111</v>
       </c>
       <c r="H21">
-        <v>7.922832</v>
+        <v>5.847333</v>
       </c>
       <c r="I21">
-        <v>0.1615979852507658</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="J21">
-        <v>0.1615979852507658</v>
+        <v>0.108515629332166</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N21">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P21">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q21">
-        <v>493.6745308654987</v>
+        <v>252.0655770359234</v>
       </c>
       <c r="R21">
-        <v>4443.070777789488</v>
+        <v>2268.59019332331</v>
       </c>
       <c r="S21">
-        <v>0.04699384954288081</v>
+        <v>0.0301810117090137</v>
       </c>
       <c r="T21">
-        <v>0.04699384954288081</v>
+        <v>0.03018101170901369</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.630401</v>
+        <v>2.509102333333333</v>
       </c>
       <c r="H22">
-        <v>7.891203</v>
+        <v>7.527307</v>
       </c>
       <c r="I22">
-        <v>0.1609528645823613</v>
+        <v>0.1396928234258966</v>
       </c>
       <c r="J22">
-        <v>0.1609528645823613</v>
+        <v>0.1396928234258966</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>6.744736333333333</v>
+        <v>6.305846</v>
       </c>
       <c r="N22">
-        <v>20.234209</v>
+        <v>18.917538</v>
       </c>
       <c r="O22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="P22">
-        <v>0.01049273071342527</v>
+        <v>0.01356150511917599</v>
       </c>
       <c r="Q22">
-        <v>17.74136119593633</v>
+        <v>15.82201291224067</v>
       </c>
       <c r="R22">
-        <v>159.672250763427</v>
+        <v>142.398116210166</v>
       </c>
       <c r="S22">
-        <v>0.001688835065617121</v>
+        <v>0.001894444940002445</v>
       </c>
       <c r="T22">
-        <v>0.001688835065617122</v>
+        <v>0.001894444940002444</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.630401</v>
+        <v>2.509102333333333</v>
       </c>
       <c r="H23">
-        <v>7.891203</v>
+        <v>7.527307</v>
       </c>
       <c r="I23">
-        <v>0.1609528645823613</v>
+        <v>0.1396928234258966</v>
       </c>
       <c r="J23">
-        <v>0.1609528645823613</v>
+        <v>0.1396928234258966</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>547.595047</v>
       </c>
       <c r="O23">
-        <v>0.283963033503136</v>
+        <v>0.392557056479861</v>
       </c>
       <c r="P23">
-        <v>0.2839630335031361</v>
+        <v>0.3925570564798609</v>
       </c>
       <c r="Q23">
-        <v>480.1315197412824</v>
+        <v>457.9906700498255</v>
       </c>
       <c r="R23">
-        <v>4321.183677671541</v>
+        <v>4121.916030448429</v>
       </c>
       <c r="S23">
-        <v>0.04570466367782677</v>
+        <v>0.05483740357543096</v>
       </c>
       <c r="T23">
-        <v>0.04570466367782679</v>
+        <v>0.05483740357543095</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.630401</v>
+        <v>2.509102333333333</v>
       </c>
       <c r="H24">
-        <v>7.891203</v>
+        <v>7.527307</v>
       </c>
       <c r="I24">
-        <v>0.1609528645823613</v>
+        <v>0.1396928234258966</v>
       </c>
       <c r="J24">
-        <v>0.1609528645823613</v>
+        <v>0.1396928234258966</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>249.1329143333333</v>
+        <v>127.396393</v>
       </c>
       <c r="N24">
-        <v>747.398743</v>
+        <v>382.189179</v>
       </c>
       <c r="O24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="P24">
-        <v>0.3875740210972192</v>
+        <v>0.2739817680029065</v>
       </c>
       <c r="Q24">
-        <v>655.3194669953143</v>
+        <v>319.6505869345503</v>
       </c>
       <c r="R24">
-        <v>5897.875202957829</v>
+        <v>2876.855282410953</v>
       </c>
       <c r="S24">
-        <v>0.06238114893330196</v>
+        <v>0.038273286739545</v>
       </c>
       <c r="T24">
-        <v>0.06238114893330197</v>
+        <v>0.038273286739545</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.630401</v>
+        <v>2.509102333333333</v>
       </c>
       <c r="H25">
-        <v>7.891203</v>
+        <v>7.527307</v>
       </c>
       <c r="I25">
-        <v>0.1609528645823613</v>
+        <v>0.1396928234258966</v>
       </c>
       <c r="J25">
-        <v>0.1609528645823613</v>
+        <v>0.1396928234258966</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>17.46044133333334</v>
+        <v>19.42400133333333</v>
       </c>
       <c r="N25">
-        <v>52.38132400000001</v>
+        <v>58.272004</v>
       </c>
       <c r="O25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745037</v>
       </c>
       <c r="P25">
-        <v>0.02716306464684043</v>
+        <v>0.04177372766745036</v>
       </c>
       <c r="Q25">
-        <v>45.92796234364134</v>
+        <v>48.73680706813644</v>
       </c>
       <c r="R25">
-        <v>413.3516610927721</v>
+        <v>438.631263613228</v>
       </c>
       <c r="S25">
-        <v>0.004371973065744834</v>
+        <v>0.005835489962890638</v>
       </c>
       <c r="T25">
-        <v>0.004371973065744834</v>
+        <v>0.005835489962890637</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.630401</v>
+        <v>2.509102333333333</v>
       </c>
       <c r="H26">
-        <v>7.891203</v>
+        <v>7.527307</v>
       </c>
       <c r="I26">
-        <v>0.1609528645823613</v>
+        <v>0.1396928234258966</v>
       </c>
       <c r="J26">
-        <v>0.1609528645823613</v>
+        <v>0.1396928234258966</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>186.9310863333334</v>
+        <v>129.3233566666667</v>
       </c>
       <c r="N26">
-        <v>560.793259</v>
+        <v>387.97007</v>
       </c>
       <c r="O26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306063</v>
       </c>
       <c r="P26">
-        <v>0.2908071500393791</v>
+        <v>0.2781259427306062</v>
       </c>
       <c r="Q26">
-        <v>491.7037164222864</v>
+        <v>324.4855359668323</v>
       </c>
       <c r="R26">
-        <v>4425.333447800577</v>
+        <v>2920.369823701491</v>
       </c>
       <c r="S26">
-        <v>0.0468062438398706</v>
+        <v>0.03885219820802762</v>
       </c>
       <c r="T26">
-        <v>0.04680624383987061</v>
+        <v>0.03885219820802761</v>
       </c>
     </row>
   </sheetData>
